--- a/Facets_Backend_CaseStudy Queries.xlsx
+++ b/Facets_Backend_CaseStudy Queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2355482\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA430F43-C56E-4728-9596-ADD734746D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B1D3AF-58B8-425E-BD9C-CBE648C0C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF85CDAB-7E31-457A-ACB5-C0BF459524E0}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{DF85CDAB-7E31-457A-ACB5-C0BF459524E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries-Case StudyTemplate" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -251,6 +251,52 @@
 AND NWPR.NWPR_EFF_DT &lt; GETDATE() AND NWPR.NWPR_TERM_DT  &gt; GETDATE()
 AND NWST.NWST_EFF_DT &lt;GETDATE() AND NWST.NWST_TERM_DT &gt;GETDATE()
 AND CSPI.CSPI_EFF_DT &lt;GETDATE() AND CSPI.CSPI_TERM_DT&gt;GETDATE();</t>
+  </si>
+  <si>
+    <t>SELECT CL.CLCL_ID, CL.CLCL_CUR_STS 
+FROM CMC_CLCL_CLAIM CL,  CMC_SBSB_SUBSC SB 
+WHERE CL.SBSB_CK = SB.SBSB_CK  
+AND CL.CLCL_CUR_STS = '11' AND SB.SBSB_ID = '070700003' AND SB.SBSB_ORIG_EFF_DT&lt;=GETDATE() AND SB.SBSB_MCTR_STS = 'ACTI';</t>
+  </si>
+  <si>
+    <t>SELECT CL.CLCL_ID, CL.CLCL_CL_TYPE, CL.CLCL_CL_SUB_TYPE
+FROM CMC_CLCL_CLAIM CL, CMC_SBSB_SUBSC SB
+WHERE CL.SBSB_CK = SB.SBSB_CK AND (CL.CLCL_CUR_STS = 11 OR CL.CLCL_CUR_STS = 15) 
+AND SB.SBSB_ID = '070700003' AND SB.SBSB_ORIG_EFF_DT&lt;=GETDATE()  AND  SB.SBSB_MCTR_STS='ACTI';</t>
+  </si>
+  <si>
+    <t>SELECT PR.PRPR_NAME, CD.IPCD_ID, CD.IDCD_ID 
+FROM CMC_CLCL_CLAIM CL, CMC_CDML_CL_LINE CD, CMC_PRPR_PROV PR
+WHERE CL.CLCL_ID = CD.CLCL_ID AND CD.PRPR_ID = PR.PRPR_ID AND CL.PRPR_ID = PR.PRPR_ID
+AND CL.CLCL_ID = '072180000100';</t>
+  </si>
+  <si>
+    <t>SELECT pypy.PYPY_PAYOR_NAME, pyba.PYBA_BANK_NAME
+FROM CMC_CLCK_CLM_CHECK clck, CMC_LOBD_LINE_BUS lobd, CMC_PYPY_PAYOR pypy, CMC_PYBA_BANK_ACCT pyba
+WHERE clck.LOBD_ID = lobd.LOBD_ID
+AND pypy.PYBA_ID = pyba.PYBA_ID
+AND lobd.PYPY_ID = pypy.PYPY_ID 
+AND clck.CLCL_ID = '072180000100' 
+AND GETDATE() BETWEEN pypy.PYPY_EFF_DT AND pypy.PYPY_TERM_DT</t>
+  </si>
+  <si>
+    <t>SELECT CLCK.CKPY_REF_ID FROM CMC_CDML_CL_LINE CDML,CMC_CLCK_CLM_CHECK CLCK
+WHERE CDML.CLCL_ID=CLCK.CLCL_ID
+AND CDML.CLCL_ID='072180000100';</t>
+  </si>
+  <si>
+    <t>SELECT CLOV_AMT FROM CMC_CLOV_OVERPAY WHERE CLCL_ID = '072200000401';</t>
+  </si>
+  <si>
+    <t>SELECT ACPR.ACPR_RECOV_AMT, ACPR.ACPR_REF_ID
+FROM CMC_ACPR_PYMT_RED ACPR, CMC_LOBD_LINE_BUS LOBD, CMC_CLCK_CLM_CHECK CLCK
+WHERE ACPR.LOBD_ID = LOBD.LOBD_ID AND LOBD.LOBD_ID = CLCK.LOBD_ID AND CLCK.CLCL_ID = '072200000401'</t>
+  </si>
+  <si>
+    <t>SELECT CKPY.CKPY_REF_ID, ACPR.ACPR_RECOV_AMT
+FROM CMC_CLCK_CLM_CHECK CLCK, CMC_LOBD_LINE_BUS LOBD, CMC_CKPY_PAYEE_SUM CKPY, CMC_ACRH_RED_HIST ACRH, CMC_ACPR_PYMT_RED ACPR
+WHERE CLCK.LOBD_ID = LOBD.LOBD_ID AND LOBD.LOBD_ID = CKPY.LOBD_ID AND CKPY.CKPY_REF_ID = ACRH.CKPY_REF_ID AND ACRH.ACPR_REF_ID = ACPR.ACPR_REF_ID
+AND CLCK.CLCL_ID = '072200000401'</t>
   </si>
 </sst>
 </file>
@@ -677,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCB8316-C7F4-42B9-80FF-38C0E1A43232}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1098,62 +1144,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>2</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="6"/>
+      <c r="C31" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="91.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="6"/>
+      <c r="C33" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>5</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
@@ -1165,31 +1221,37 @@
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="39.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>8</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>

--- a/Facets_Backend_CaseStudy Queries.xlsx
+++ b/Facets_Backend_CaseStudy Queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nkbib\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2355482\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177F4288-C3D7-4C58-9A78-923D9F48A8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4D21DA-AF86-49A0-BFE5-7FA21A5700E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DF85CDAB-7E31-457A-ACB5-C0BF459524E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DF85CDAB-7E31-457A-ACB5-C0BF459524E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Queries-Case StudyTemplate" sheetId="1" r:id="rId1"/>
@@ -272,364 +272,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SELECT CLCK.CKPY_REF_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CDML_CL_LINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CDML,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCK_CLM_CHECK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCK
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CDML.CLCL_ID=CLCK.CLCL_ID
-AND CDML.CLCL_ID='072180000100';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT ACPR.ACPR_RECOV_AMT, ACPR.ACPR_REF_ID
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_ACPR_PYMT_RED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ACPR, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_LOBD_LINE_BUS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> LOBD, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCK_CLM_CHECK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCK
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ACPR.LOBD_ID = LOBD.LOBD_ID AND LOBD.LOBD_ID = CLCK.LOBD_ID AND CLCK.CLCL_ID = '072200000401'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT CKPY.CKPY_REF_ID, ACPR.ACPR_RECOV_AMT
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCK_CLM_CHECK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCK, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_LOBD_LINE_BUS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> LOBD, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CKPY_PAYEE_SUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CKPY, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_ACRH_RED_HIST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ACRH, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CMC_ACPR_PYMT_RED </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ACPR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCK.LOBD_ID = LOBD.LOBD_ID AND LOBD.LOBD_ID = CKPY.LOBD_ID AND CKPY.CKPY_REF_ID = ACRH.CKPY_REF_ID AND ACRH.ACPR_REF_ID = ACPR.ACPR_REF_ID
-AND CLCK.CLCL_ID = '072200000401'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">select IDCD_ID,IDCD_DESC,IDCD_EFF_DT,IDCD_TERM_DT </t>
     </r>
     <r>
@@ -3939,7 +3581,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SELECT SBEL.SBEL_ELIG_TYPE, SBEL.CSPD_CAT, SBEL.CSPI_ID
+      <t xml:space="preserve">SELECT MEME.MEME_FIRST_NAME, MEME.MEME_LAST_NAME, PRPR.PRPR_NAME
 </t>
     </r>
     <r>
@@ -3972,38 +3614,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CMC_SBEL_ELIG_ENT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SBEL, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_SBSB_SUBSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SBSB, </t>
+      <t>CMC_PRPR_PROV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PRPR, </t>
     </r>
     <r>
       <rPr>
@@ -4035,17 +3656,38 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CMC_MEPE_PRCS_ELIG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEPE
+      <t xml:space="preserve">CMC_SBSB_SUBSC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">SBSB, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_MEPR_PRIM_PROV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEPR
 </t>
     </r>
     <r>
@@ -4067,7 +3709,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> SBEL.SBSB</t>
+      <t xml:space="preserve"> MEPR.MEPR_PCP_TYPE = 'DP' AND SBSB.SBSB_ID = '070700003' AND (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">GETDATE() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BETWEEN MEPR.MEPR_EFF_DT AND MEPR.MEPR_TERM_DT)
+AND SBSB.SBSB</t>
     </r>
     <r>
       <rPr>
@@ -4088,7 +3752,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> = SBSB.SBSB</t>
+      <t xml:space="preserve"> = MEME.SBSB</t>
     </r>
     <r>
       <rPr>
@@ -4120,6 +3784,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MEPR.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">_CK </t>
     </r>
     <r>
@@ -4130,55 +3815,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>= MEPE.MEME</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AND SBSB.SBSB_ID = '070700003'
-AND (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GETDATE()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BETWEEN MEPE.MEPE_EFF_DT AND MEPE.MEPE_TERM_DT)</t>
+      <t>AND PRPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MEPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">SELECT MEME.MEME_FIRST_NAME, MEME.MEME_LAST_NAME, PRPR.PRPR_NAME
+      <t xml:space="preserve">
+SELECT MEPE.CSPI_ID, MEPE.PDPD_ID, MEPE.MEPE_EFF_DT, MEPE.MEPE_TERM_DT, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DATEDIFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(YEAR, MEPE.MEPE_EFF_DT, MEPE.MEPE_TERM_DT) 'TIME RANGE'
 </t>
     </r>
     <r>
@@ -4211,17 +3907,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CMC_PRPR_PROV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PRPR, </t>
+      <t>CMC_MEPE_PRCS_ELIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEPE, </t>
     </r>
     <r>
       <rPr>
@@ -4253,38 +3949,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CMC_SBSB_SUBSC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SBSB, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_MEPR_PRIM_PROV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEPR
+      <t>CMC_SBSB_SUBSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SBSB
 </t>
     </r>
     <r>
@@ -4306,7 +3981,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> MEPR.MEPR_PCP_TYPE = 'DP' AND SBSB.SBSB_ID = '070700003' AND (</t>
+      <t xml:space="preserve"> SBSB.SBSB_ID = '070700003' AND (</t>
     </r>
     <r>
       <rPr>
@@ -4327,7 +4002,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>BETWEEN MEPR.MEPR_EFF_DT AND MEPR.MEPR_TERM_DT)
+      <t>BETWEEN MEPE.MEPE_EFF_DT AND MEPE.MEPE_TERM_DT)
 AND SBSB.SBSB</t>
     </r>
     <r>
@@ -4385,331 +4060,59 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = MEPR.MEME</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">_CK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND PRPR.PRPR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = MEPR.PRPR</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_ID</t>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= MEPE.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND SBSB.SBSB_MCTR_STS = 'ACTI'</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-SELECT MEPE.CSPI_ID, MEPE.PDPD_ID, MEPE.MEPE_EFF_DT, MEPE.MEPE_TERM_DT, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DATEDIFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(YEAR, MEPE.MEPE_EFF_DT, MEPE.MEPE_TERM_DT) 'TIME RANGE'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_MEPE_PRCS_ELIG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEPE, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_MEME_MEMBER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEME, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_SBSB_SUBSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SBSB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SBSB.SBSB_ID = '070700003' AND (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">GETDATE() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BETWEEN MEPE.MEPE_EFF_DT AND MEPE.MEPE_TERM_DT)
-AND SBSB.SBSB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = MEME.SBSB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AND MEME.MEME</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>= MEPE.MEME</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>AND SBSB.SBSB_MCTR_STS = 'ACTI'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">SELECT CL.CLCL_ID, CL.CLCL_CL_TYPE, CL.CLCL_CL_SUB_TYPE
 </t>
     </r>
@@ -4819,509 +4222,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  AND  SB.SBSB_MCTR_STS='ACTI';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT pypy.PYPY_PAYOR_NAME, pyba.PYBA_BANK_NAME
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCK_CLM_CHECK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clck, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_LOBD_LINE_BUS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lobd, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_PYPY_PAYOR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pypy, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_PYBA_BANK_ACCT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> pyba
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clck.LOBD_ID = lobd.LOBD_ID
-AND pypy.PYBA_ID = pyba.PYBA_ID
-AND lobd.PYPY_ID = pypy.PYPY_ID 
-AND clck.CLCL_ID = '072180000100' 
-AND </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GETDATE()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> BETWEEN pypy.PYPY_EFF_DT AND pypy.PYPY_TERM_DT</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">select CSPI.PDPD_ID, GRGR.GRGR_ID, CSPI.CSCS_ID, MEME.MEME_FIRST_NAME, MEME.MEME_LAST_NAME, MEHD.MEHD_TYPE, PRPR.PRPR_NAME,GPAI.GPAI_SB_STOP_AGE, count(CLCL.CLCL_CUR_STS)
-as CLAIM_COUNT </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CMC_GRGR_GROUP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> GRGR,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_MEME_MEMBER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEME,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCL_CLAIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCL, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_MEHD_HANDICAP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEHD, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_MEPR_PRIM_PROV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MEPR, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_PRPR_PROV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PRPR, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_NWPR_RELATION</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> NWPR,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_SBSB_SUBSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SBSB, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_SBCS_CLASS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SBCS, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CSPI_CS_PLAN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CSPI, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_GPAI_GRP_ADM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> GPAI
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCL.CLCL_CUR_STS in('01','02') and MEPR.MEPR_PCP_TYPE = 'MP' and NWPR.NWPR_PFX = 'PPO' and
-CSPI.PDPD_ID = 'C07PPP01' and GRGR.GRGR_ID = 'C07G0002' 
-and GRGR.GRGR_CK = MEME.GRGR_CK and MEME.MEME_CK = CLCL.MEME_CK and MEME.MEME_CK = MEHD.MEME_CK and MEME.MEME_CK = MEPR.MEME_CK
-and MEME.SBSB_CK= SBSB.SBSB_CK and MEPR.PRPR_ID = PRPR.PRPR_ID and PRPR.PRPR_ID = NWPR.PRPR_ID and SBSB.SBSB_CK = SBCS.SBSB_CK and
-(SBCS.CSCS_ID = CSPI.CSCS_ID AND SBCS.GRGR_CK = CSPI.GRGR_CK) and CSPI.GPAI_ID = GPAI.GPAI_ID
-and (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getdate()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between GRGR.GRGR_ORIG_EFF_DT and GRGR.GRGR_TERM_DT) and (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getdate()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between CSPI.CSPI_EFF_DT and CSPI.CSPI_TERM_DT)
-and MEME.MEME_MCTR_STS = 'ACTI' and SBSB.SBSB_MCTR_STS = 'ACTI' and (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>getdate()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> between MEPR.MEPR_EFF_DT and MEPR.MEPR_TERM_DT)
-group by CSPI.PDPD_ID, GRGR.GRGR_ID, CSPI.CSCS_ID, MEME.MEME_FIRST_NAME, MEME.MEME_LAST_NAME, MEHD.MEHD_TYPE, PRPR.PRPR_NAME,GPAI.GPAI_SB_STOP_AGE</t>
     </r>
   </si>
   <si>
@@ -5556,6 +4456,2382 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">SELECT SBEL.SBEL_ELIG_TYPE, SBEL.CSPD_CAT, SBEL.CSPI_ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_SBEL_ELIG_ENT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SBEL, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_SBSB_SUBSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SBSB, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_MEME_MEMBER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEME, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_MEPE_PRCS_ELIG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEPE
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SBEL.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = SBSB.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND SBSB.SBSB_Ck = Meme.sbsb_ck and MEME.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= MEPE.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND SBSB.SBSB_ID = '070700003'
+AND (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GETDATE()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BETWEEN MEPE.MEPE_EFF_DT AND MEPE.MEPE_TERM_DT)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT CL.CLCL_ID, CL.CLCL_CUR_STS 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCL_CLAIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CL,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_SBSB_SUBSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SB 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CL.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = SB.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+AND CL.CLCL_CUR_STS = '11' AND SB.SBSB_ID = '070700003' AND SB.SBSB_ORIG_EFF_DT&lt;=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GETDATE()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND SB.SBSB_MCTR_STS = 'ACTI';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT PR.PRPR_NAME, CD.IPCD_ID, CD.IDCD_ID 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCL_CLAIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCL, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CDML_CL_LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CDML, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_PRPR_PROV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PRPR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCL.CLCL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= CDML.CLCL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND CDML.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = PRPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND CLCL.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = PRPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AND CLCL.CLCL_ID = '072180000100';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT pypy.PYPY_PAYOR_NAME, pyba.PYBA_BANK_NAME
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCK_CLM_CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clck, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_LOBD_LINE_BUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lobd, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_PYPY_PAYOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pypy, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_PYBA_BANK_ACCT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pyba
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clck.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = lobd.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AND pypy.PYBA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= pyba.PYBA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AND lobd.PYPY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= pypy.PYPY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AND clck.CLCL_ID = '072180000100' 
+AND </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GETDATE()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> BETWEEN pypy.PYPY_EFF_DT AND pypy.PYPY_TERM_DT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT CLCK.CKPY_REF_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CDML_CL_LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CDML,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCK_CLM_CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCK
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CDML.CLCL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=CLCK.CLCL</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AND CDML.CLCL_ID='072180000100';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT ACPR.ACPR_RECOV_AMT, ACPR.ACPR_REF_ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_ACPR_PYMT_RED</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACPR, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_LOBD_LINE_BUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LOBD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCK_CLM_CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCK
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACPR.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = LOBD.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND LOBD.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = CLCK.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND CLCK.CLCL_ID = '072200000401'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SELECT CKPY.CKPY_REF_ID, ACPR.ACPR_RECOV_AMT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCK_CLM_CHECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCK, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_LOBD_LINE_BUS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> LOBD, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CKPY_PAYEE_SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CKPY, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_ACRH_RED_HIST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ACRH, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CMC_ACPR_PYMT_RED </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ACPR
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCK.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= LOBD.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND LOBD.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = CKPY.LOBD</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND CKPY.CKPY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_REF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ACRH.CKPY</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_REF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> AND ACRH.ACPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_REF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = ACPR.ACPR_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>REF_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+AND CLCK.CLCL_ID = '072200000401'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">select CSPI.PDPD_ID, GRGR.GRGR_ID, CSPI.CSCS_ID, MEME.MEME_FIRST_NAME, MEME.MEME_LAST_NAME, MEHD.MEHD_TYPE, PRPR.PRPR_NAME,GPAI.GPAI_SB_STOP_AGE, count(CLCL.CLCL_CUR_STS)
+as CLAIM_COUNT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CMC_GRGR_GROUP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GRGR,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_MEME_MEMBER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEME,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CLCL_CLAIM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCL, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_MEHD_HANDICAP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEHD, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_MEPR_PRIM_PROV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MEPR, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_PRPR_PROV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PRPR, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_NWPR_RELATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> NWPR,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_SBSB_SUBSC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SBSB, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_SBCS_CLASS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SBCS, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_CSPI_CS_PLAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CSPI, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMC_GPAI_GRP_ADM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> GPAI
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CLCL.CLCL_CUR_STS in('01','02') and MEPR.MEPR_PCP_TYPE = 'MP' and NWPR.NWPR_PFX = 'PPO' and
+CSPI.PDPD_ID = 'C07PPP01' and GRGR.GRGR_ID = 'C07G0002' 
+and GRGR.GRGR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MEME.GRGR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and MEME.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = CLCL.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and MEME.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MEHD.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_CK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and MEME.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = MEPR.MEME</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+and MEME.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>= SBSB.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and MEPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = PRPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and PRPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = NWPR.PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and SBSB.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = SBCS.SBSB</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and
+(SBCS.CSCS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = CSPI.CSCS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">_ID </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AND SBCS.GRGR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = CSPI.GRGR</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_CK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and CSPI.GPAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = GPAI.GPAI</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+and (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getdate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between GRGR.GRGR_ORIG_EFF_DT and GRGR.GRGR_TERM_DT) and (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getdate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between CSPI.CSPI_EFF_DT and CSPI.CSPI_TERM_DT)
+and MEME.MEME_MCTR_STS = 'ACTI' and SBSB.SBSB_MCTR_STS = 'ACTI' and (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getdate()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> between MEPR.MEPR_EFF_DT and MEPR.MEPR_TERM_DT)
+group by CSPI.PDPD_ID, GRGR.GRGR_ID, CSPI.CSCS_ID, MEME.MEME_FIRST_NAME, MEME.MEME_LAST_NAME, MEHD.MEHD_TYPE, PRPR.PRPR_NAME,GPAI.GPAI_SB_STOP_AGE</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">SELECT  CSPI.CSCS_ID ,CSPI.CSPI_ID,CSPI.PDPD_ID,NWST.NWNW_ID,NWST.NWST_PFX,PRPR.PRPR_NAME,PRAD.PRAD_ADDR1 ,PRAD.PRAD_ADDR2 ,PRAD.PRAD_ADDR3 ,PRAD.PRAD_CITY ,PRAD.PRAD_STATE ,PRAD.PRAD_ZIP
 </t>
     </r>
@@ -5705,7 +6981,175 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> PRPR.PRPR_MCTR_TYPE='MD' and PRPR.PRAD_TYPE_PRIM=PRAD.PRAD_TYPE and PRPR.PRAD_ID=PRAD.PRAD_ID AND NWPR.PRPR_ID=PRPR.PRPR_ID AND NWST.NWST_PFX=CSPI.NWST_PFX 
+      <t xml:space="preserve"> PRPR.PRPR_MCTR_TYPE='MD' and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.PRAD_TYPE_PRIM=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.PRAD_TYPE and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.PRAD_ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.PRAD_ID AND </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NWPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.PRPR_ID=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="3" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRPR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.PRPR_ID AND </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NWST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.NWST_PFX=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CSPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.NWST_PFX 
 AND NWST.NWNW_ID=NWPR.NWNW_ID AND NWST.NWST_PFX=NWPR.NWPR_PFX AND CSPI.PDPD_ID='C07PPP01'
 AND NWPR.NWPR_PCP_IND='Y' AND NWST.NWST_PR_NW_STS='I'
 AND  PRAD.PRAD_EFF_DT&lt; </t>
@@ -5923,274 +7367,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT CL.CLCL_ID, CL.CLCL_CUR_STS 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCL_CLAIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CL,  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_SBSB_SUBSC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> SB 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CL.SBSB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = SB.SBSB</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_CK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-AND CL.CLCL_CUR_STS = '11' AND SB.SBSB_ID = '070700003' AND SB.SBSB_ORIG_EFF_DT&lt;=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GETDATE()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> AND SB.SBSB_MCTR_STS = 'ACTI';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">SELECT PR.PRPR_NAME, CD.IPCD_ID, CD.IDCD_ID 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FROM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CLCL_CLAIM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCL, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_CDML_CL_LINE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CDML, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CMC_PRPR_PROV</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PRPR
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>WHERE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> CLCL.CLCL_ID = CDML.CLCL_ID AND CDML.PRPR_ID = PRPR.PRPR_ID AND CLCL.PRPR_ID = PRPR.PRPR_ID
-AND CLCL.CLCL_ID = '072180000100';</t>
     </r>
   </si>
 </sst>
@@ -6198,7 +7374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6304,8 +7480,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6321,6 +7513,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6352,7 +7556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6386,6 +7590,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6404,9 +7614,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6444,7 +7654,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6550,7 +7760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6692,7 +7902,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6702,19 +7912,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCB8316-C7F4-42B9-80FF-38C0E1A43232}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="137.109375" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="3" max="3" width="137.08984375" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6728,7 +7938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6736,13 +7946,13 @@
         <v>4</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="29.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6750,13 +7960,13 @@
         <v>4</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6764,13 +7974,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6778,13 +7988,13 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6792,13 +8002,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -6806,13 +8016,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -6820,13 +8030,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -6834,13 +8044,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="33.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -6848,13 +8058,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -6868,7 +8078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -6882,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>3</v>
       </c>
@@ -6896,7 +8106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="33.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -6904,13 +8114,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="47.4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="47" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>5</v>
       </c>
@@ -6918,7 +8128,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -6927,7 +8137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="47" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -6935,13 +8145,13 @@
         <v>6</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -6949,13 +8159,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -6963,13 +8173,13 @@
         <v>7</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>3</v>
       </c>
@@ -6977,13 +8187,13 @@
         <v>7</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="97.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>4</v>
       </c>
@@ -6991,13 +8201,13 @@
         <v>7</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="83.4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="84" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -7005,13 +8215,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="76.8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="75.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -7019,13 +8229,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="76.8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="75.5" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -7033,13 +8243,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="61.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>3</v>
       </c>
@@ -7047,13 +8257,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="65.400000000000006" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="65.5" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <v>4</v>
       </c>
@@ -7061,13 +8271,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="65.400000000000006" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" ht="65.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <v>5</v>
       </c>
@@ -7075,13 +8285,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="73.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -7089,13 +8299,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="79" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>7</v>
       </c>
@@ -7103,27 +8313,27 @@
         <v>8</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="83.4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" ht="84" x14ac:dyDescent="0.45">
       <c r="A29" s="2">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="65.400000000000006" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" ht="65.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -7131,13 +8341,13 @@
         <v>9</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" ht="62.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <v>2</v>
       </c>
@@ -7145,13 +8355,13 @@
         <v>9</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="60.5" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -7159,13 +8369,13 @@
         <v>9</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="104.4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="115.5" x14ac:dyDescent="0.45">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -7179,7 +8389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="47.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>5</v>
       </c>
@@ -7187,13 +8397,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>6</v>
       </c>
@@ -7201,13 +8411,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="47" x14ac:dyDescent="0.45">
       <c r="A36" s="2">
         <v>7</v>
       </c>
@@ -7215,13 +8425,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="58.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="79" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>8</v>
       </c>
@@ -7229,13 +8439,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="246.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="241" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -7243,27 +8453,27 @@
         <v>10</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="190.2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="191" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>2</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="237" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="230" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -7271,115 +8481,115 @@
         <v>10</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
       <c r="D43" s="7"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
